--- a/src/test/java/testData/data.xlsx
+++ b/src/test/java/testData/data.xlsx
@@ -24,24 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>automationAssessment@iLABQuality.com</t>
-  </si>
-  <si>
-    <t>Busanii</t>
-  </si>
-  <si>
-    <t>Zanele4</t>
-  </si>
-  <si>
-    <t>Zanele@gmail.com</t>
   </si>
   <si>
     <t>Busani</t>
@@ -52,18 +37,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,16 +63,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -387,23 +361,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
